--- a/biology/Zoologie/Arrhinoceratops/Arrhinoceratops.xlsx
+++ b/biology/Zoologie/Arrhinoceratops/Arrhinoceratops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arrhinoceratops brachyops
 Arrhinoceratops est un genre fossile de dinosaures herbivores cératopsiens ayant vécu en Alberta (Canada) au Crétacé supérieur à la fin du Campanien, soit il y a environ 72 Ma (millions d'années).
 La seule espèce valide du genre est Arrhinoceratops brachyops (Parks, 1925) découverte dans la formation géologique de Horseshoe Canyon en Alberta.
-L'autre espèce décrite, Arrhinoceratops utahensis Gilmore, 1946 est un synonyme de Torosaurus utahensis[2].
+L'autre espèce décrite, Arrhinoceratops utahensis Gilmore, 1946 est un synonyme de Torosaurus utahensis.
 </t>
         </is>
       </c>
@@ -514,10 +526,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quand William Parks décrivit ce dinosaure en 1925, aucune corne nasale n'avait été trouvée. Seule une protubérance était visible à la place. Parks en conclut donc que cet animal n'avait pas de corne nasale, contrairement aux autres cératopsidés[1].
-Cette absence de corne sur le nez est indiquée dans le nom du genre Arrhinoceratops qui est composé du grec ancien « a-/α- » « sans », « rhis/ῥίς » « nez », « keras/κέρας » « corne » et « -ops/ὤψ » « tête » pour donner « sans corne sur le nez »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quand William Parks décrivit ce dinosaure en 1925, aucune corne nasale n'avait été trouvée. Seule une protubérance était visible à la place. Parks en conclut donc que cet animal n'avait pas de corne nasale, contrairement aux autres cératopsidés.
+Cette absence de corne sur le nez est indiquée dans le nom du genre Arrhinoceratops qui est composé du grec ancien « a-/α- » « sans », « rhis/ῥίς » « nez », « keras/κέρας » « corne » et « -ops/ὤψ » « tête » pour donner « sans corne sur le nez ».
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce dinosaure de taille moyenne mesurait de 5 à 8 mètres de long et avait une hauteur d'environ 2 mètres.
 </t>
@@ -577,9 +593,11 @@
           <t>Cladogramme Ceratopsidae</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme des Ceratopsidae ci-dessous présente les résultats des analyses phylogénétiques de Dalman, Jasinski, &amp; Lucas en 2022[3],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme des Ceratopsidae ci-dessous présente les résultats des analyses phylogénétiques de Dalman, Jasinski, &amp; Lucas en 2022,.
 </t>
         </is>
       </c>
